--- a/ConstructionCalculator.Business.Test/TestResource/BusinessValue.xlsx
+++ b/ConstructionCalculator.Business.Test/TestResource/BusinessValue.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\einst\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Construction Calculator\ImportData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>业态名称ID</t>
   </si>
@@ -138,17 +138,21 @@
   <si>
     <t>多合一场所</t>
     <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>废弃场所</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -160,10 +164,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10.5"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -212,15 +224,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -534,17 +546,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.75" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,7 +564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -560,7 +572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -568,7 +580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -576,7 +588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="25.5">
+    <row r="5" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -584,7 +596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="25.5">
+    <row r="6" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -592,7 +604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="38.25">
+    <row r="7" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -600,7 +612,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -608,7 +620,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -616,7 +628,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="51">
+    <row r="10" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -624,7 +636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -632,7 +644,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -640,7 +652,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="25.5">
+    <row r="13" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -648,7 +660,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="25.5">
+    <row r="14" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -656,7 +668,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="25.5">
+    <row r="15" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -664,7 +676,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="25.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -672,7 +684,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="25.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -680,7 +692,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="25.5">
+    <row r="18" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -688,7 +700,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="25.5">
+    <row r="19" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -696,7 +708,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="25.5">
+    <row r="20" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -704,7 +716,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="38.25">
+    <row r="21" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -712,7 +724,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="38.25">
+    <row r="22" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -720,7 +732,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="25.5">
+    <row r="23" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -728,7 +740,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="25.5">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -736,7 +748,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="38.25">
+    <row r="25" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -744,7 +756,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="38.25">
+    <row r="26" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -752,7 +764,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -760,7 +772,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -768,10 +780,17 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="B29" s="4"/>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>